--- a/data/newfoundland_fishing_citations.xlsx
+++ b/data/newfoundland_fishing_citations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelly\Documents\grad\Telling Stories with Data\portfolio\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F35169FC-EDFE-4743-A772-A21C66D1C4C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144F9532-B238-4FA3-8C65-FE4313BF3023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-4455" windowWidth="29040" windowHeight="15720" xr2:uid="{091C8717-F933-4CE1-8338-3089DC6FB04D}"/>
   </bookViews>
